--- a/projects/EcoFoci/dy2306/data/dy2306_faire.xlsx
+++ b/projects/EcoFoci/dy2306/data/dy2306_faire.xlsx
@@ -5643,7 +5643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EF94"/>
+  <dimension ref="A1:EH94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6989,6 +6989,16 @@
           <t>User defined</t>
         </is>
       </c>
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>User defined</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -7671,6 +7681,16 @@
           <t>rosette_position</t>
         </is>
       </c>
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>density</t>
+        </is>
+      </c>
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>density_unit</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7931,7 +7951,7 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
@@ -8312,6 +8332,14 @@
       </c>
       <c r="EF4" t="n">
         <v>1</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>25.8677</v>
+      </c>
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -8573,7 +8601,7 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
@@ -8954,6 +8982,14 @@
       </c>
       <c r="EF5" t="n">
         <v>7</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>25.4193</v>
+      </c>
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -9215,7 +9251,7 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
@@ -9596,6 +9632,14 @@
       </c>
       <c r="EF6" t="n">
         <v>1</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>26.6853</v>
+      </c>
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -9857,7 +9901,7 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
@@ -10238,6 +10282,14 @@
       </c>
       <c r="EF7" t="n">
         <v>8</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>25.7271</v>
+      </c>
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -10499,7 +10551,7 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
@@ -10880,6 +10932,14 @@
       </c>
       <c r="EF8" t="n">
         <v>10</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>25.6238</v>
+      </c>
+      <c r="EH8" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -11141,7 +11201,7 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
@@ -11522,6 +11582,14 @@
       </c>
       <c r="EF9" t="n">
         <v>1</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>26.5602</v>
+      </c>
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -11783,7 +11851,7 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
@@ -12164,6 +12232,14 @@
       </c>
       <c r="EF10" t="n">
         <v>7</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>25.6281</v>
+      </c>
+      <c r="EH10" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -12425,7 +12501,7 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
@@ -12806,6 +12882,14 @@
       </c>
       <c r="EF11" t="n">
         <v>9</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>25.6161</v>
+      </c>
+      <c r="EH11" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -13067,7 +13151,7 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
@@ -13448,6 +13532,14 @@
       </c>
       <c r="EF12" t="n">
         <v>1</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>26.0766</v>
+      </c>
+      <c r="EH12" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -13709,7 +13801,7 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
@@ -14090,6 +14182,14 @@
       </c>
       <c r="EF13" t="n">
         <v>6</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>25.5362</v>
+      </c>
+      <c r="EH13" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -14351,7 +14451,7 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2024-04-17T00:00:00Z</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
@@ -14732,6 +14832,14 @@
       </c>
       <c r="EF14" t="n">
         <v>8</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>25.4531</v>
+      </c>
+      <c r="EH14" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -14993,7 +15101,7 @@
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
@@ -15374,6 +15482,14 @@
       </c>
       <c r="EF15" t="n">
         <v>1</v>
+      </c>
+      <c r="EG15" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="EH15" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -15635,7 +15751,7 @@
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
@@ -16016,6 +16132,14 @@
       </c>
       <c r="EF16" t="n">
         <v>5</v>
+      </c>
+      <c r="EG16" t="n">
+        <v>25.4063</v>
+      </c>
+      <c r="EH16" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -16277,7 +16401,7 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
@@ -16658,6 +16782,14 @@
       </c>
       <c r="EF17" t="n">
         <v>8</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>25.397</v>
+      </c>
+      <c r="EH17" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -16919,7 +17051,7 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
@@ -17300,6 +17432,14 @@
       </c>
       <c r="EF18" t="n">
         <v>1</v>
+      </c>
+      <c r="EG18" t="n">
+        <v>25.1452</v>
+      </c>
+      <c r="EH18" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -17561,7 +17701,7 @@
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
@@ -17942,6 +18082,14 @@
       </c>
       <c r="EF19" t="n">
         <v>3</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>25.1386</v>
+      </c>
+      <c r="EH19" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -18203,7 +18351,7 @@
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
@@ -18584,6 +18732,14 @@
       </c>
       <c r="EF20" t="n">
         <v>5</v>
+      </c>
+      <c r="EG20" t="n">
+        <v>25.1274</v>
+      </c>
+      <c r="EH20" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -18845,7 +19001,7 @@
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
@@ -19238,6 +19394,16 @@
       </c>
       <c r="EF21" t="n">
         <v>1</v>
+      </c>
+      <c r="EG21" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH21" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -19499,7 +19665,7 @@
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
@@ -19892,6 +20058,16 @@
       </c>
       <c r="EF22" t="n">
         <v>4</v>
+      </c>
+      <c r="EG22" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH22" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -20153,7 +20329,7 @@
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD23" t="inlineStr">
@@ -20546,6 +20722,16 @@
       </c>
       <c r="EF23" t="n">
         <v>6</v>
+      </c>
+      <c r="EG23" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH23" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -20807,7 +20993,7 @@
       </c>
       <c r="BC24" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD24" t="inlineStr">
@@ -21188,6 +21374,14 @@
       </c>
       <c r="EF24" t="n">
         <v>1</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>25.8481</v>
+      </c>
+      <c r="EH24" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -21449,7 +21643,7 @@
       </c>
       <c r="BC25" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD25" t="inlineStr">
@@ -21830,6 +22024,14 @@
       </c>
       <c r="EF25" t="n">
         <v>4</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>25.6793</v>
+      </c>
+      <c r="EH25" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -22091,7 +22293,7 @@
       </c>
       <c r="BC26" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD26" t="inlineStr">
@@ -22472,6 +22674,14 @@
       </c>
       <c r="EF26" t="n">
         <v>6</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>25.6676</v>
+      </c>
+      <c r="EH26" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -22733,7 +22943,7 @@
       </c>
       <c r="BC27" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD27" t="inlineStr">
@@ -23114,6 +23324,14 @@
       </c>
       <c r="EF27" t="n">
         <v>1</v>
+      </c>
+      <c r="EG27" t="n">
+        <v>25.8789</v>
+      </c>
+      <c r="EH27" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -23375,7 +23593,7 @@
       </c>
       <c r="BC28" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD28" t="inlineStr">
@@ -23756,6 +23974,14 @@
       </c>
       <c r="EF28" t="n">
         <v>4</v>
+      </c>
+      <c r="EG28" t="n">
+        <v>25.8691</v>
+      </c>
+      <c r="EH28" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -24017,7 +24243,7 @@
       </c>
       <c r="BC29" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD29" t="inlineStr">
@@ -24398,6 +24624,14 @@
       </c>
       <c r="EF29" t="n">
         <v>6</v>
+      </c>
+      <c r="EG29" t="n">
+        <v>25.8539</v>
+      </c>
+      <c r="EH29" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -24659,7 +24893,7 @@
       </c>
       <c r="BC30" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD30" t="inlineStr">
@@ -25040,6 +25274,14 @@
       </c>
       <c r="EF30" t="n">
         <v>1</v>
+      </c>
+      <c r="EG30" t="n">
+        <v>25.8074</v>
+      </c>
+      <c r="EH30" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -25301,7 +25543,7 @@
       </c>
       <c r="BC31" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD31" t="inlineStr">
@@ -25682,6 +25924,14 @@
       </c>
       <c r="EF31" t="n">
         <v>4</v>
+      </c>
+      <c r="EG31" t="n">
+        <v>25.8079</v>
+      </c>
+      <c r="EH31" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -25943,7 +26193,7 @@
       </c>
       <c r="BC32" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD32" t="inlineStr">
@@ -26324,6 +26574,14 @@
       </c>
       <c r="EF32" t="n">
         <v>6</v>
+      </c>
+      <c r="EG32" t="n">
+        <v>25.803</v>
+      </c>
+      <c r="EH32" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -26585,7 +26843,7 @@
       </c>
       <c r="BC33" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD33" t="inlineStr">
@@ -26966,6 +27224,14 @@
       </c>
       <c r="EF33" t="n">
         <v>1</v>
+      </c>
+      <c r="EG33" t="n">
+        <v>25.8387</v>
+      </c>
+      <c r="EH33" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -27227,7 +27493,7 @@
       </c>
       <c r="BC34" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD34" t="inlineStr">
@@ -27608,6 +27874,14 @@
       </c>
       <c r="EF34" t="n">
         <v>4</v>
+      </c>
+      <c r="EG34" t="n">
+        <v>25.8387</v>
+      </c>
+      <c r="EH34" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -27869,7 +28143,7 @@
       </c>
       <c r="BC35" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD35" t="inlineStr">
@@ -28250,6 +28524,14 @@
       </c>
       <c r="EF35" t="n">
         <v>6</v>
+      </c>
+      <c r="EG35" t="n">
+        <v>25.8386</v>
+      </c>
+      <c r="EH35" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -28511,7 +28793,7 @@
       </c>
       <c r="BC36" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD36" t="inlineStr">
@@ -28892,6 +29174,14 @@
       </c>
       <c r="EF36" t="n">
         <v>1</v>
+      </c>
+      <c r="EG36" t="n">
+        <v>25.8907</v>
+      </c>
+      <c r="EH36" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -29153,7 +29443,7 @@
       </c>
       <c r="BC37" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD37" t="inlineStr">
@@ -29534,6 +29824,14 @@
       </c>
       <c r="EF37" t="n">
         <v>4</v>
+      </c>
+      <c r="EG37" t="n">
+        <v>25.8847</v>
+      </c>
+      <c r="EH37" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -29795,7 +30093,7 @@
       </c>
       <c r="BC38" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD38" t="inlineStr">
@@ -30176,6 +30474,14 @@
       </c>
       <c r="EF38" t="n">
         <v>6</v>
+      </c>
+      <c r="EG38" t="n">
+        <v>25.88</v>
+      </c>
+      <c r="EH38" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -30437,7 +30743,7 @@
       </c>
       <c r="BC39" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD39" t="inlineStr">
@@ -30818,6 +31124,14 @@
       </c>
       <c r="EF39" t="n">
         <v>1</v>
+      </c>
+      <c r="EG39" t="n">
+        <v>25.8034</v>
+      </c>
+      <c r="EH39" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -31079,7 +31393,7 @@
       </c>
       <c r="BC40" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD40" t="inlineStr">
@@ -31460,6 +31774,14 @@
       </c>
       <c r="EF40" t="n">
         <v>4</v>
+      </c>
+      <c r="EG40" t="n">
+        <v>25.6964</v>
+      </c>
+      <c r="EH40" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -31721,7 +32043,7 @@
       </c>
       <c r="BC41" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD41" t="inlineStr">
@@ -32102,6 +32424,14 @@
       </c>
       <c r="EF41" t="n">
         <v>6</v>
+      </c>
+      <c r="EG41" t="n">
+        <v>25.6875</v>
+      </c>
+      <c r="EH41" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -32363,7 +32693,7 @@
       </c>
       <c r="BC42" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD42" t="inlineStr">
@@ -32744,6 +33074,14 @@
       </c>
       <c r="EF42" t="n">
         <v>1</v>
+      </c>
+      <c r="EG42" t="n">
+        <v>25.8031</v>
+      </c>
+      <c r="EH42" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -33005,7 +33343,7 @@
       </c>
       <c r="BC43" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD43" t="inlineStr">
@@ -33386,6 +33724,14 @@
       </c>
       <c r="EF43" t="n">
         <v>4</v>
+      </c>
+      <c r="EG43" t="n">
+        <v>25.8031</v>
+      </c>
+      <c r="EH43" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -33647,7 +33993,7 @@
       </c>
       <c r="BC44" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD44" t="inlineStr">
@@ -34028,6 +34374,14 @@
       </c>
       <c r="EF44" t="n">
         <v>6</v>
+      </c>
+      <c r="EG44" t="n">
+        <v>25.7984</v>
+      </c>
+      <c r="EH44" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -34289,7 +34643,7 @@
       </c>
       <c r="BC45" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD45" t="inlineStr">
@@ -34670,6 +35024,14 @@
       </c>
       <c r="EF45" t="n">
         <v>1</v>
+      </c>
+      <c r="EG45" t="n">
+        <v>25.7622</v>
+      </c>
+      <c r="EH45" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -34931,7 +35293,7 @@
       </c>
       <c r="BC46" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD46" t="inlineStr">
@@ -35312,6 +35674,14 @@
       </c>
       <c r="EF46" t="n">
         <v>4</v>
+      </c>
+      <c r="EG46" t="n">
+        <v>25.7613</v>
+      </c>
+      <c r="EH46" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -35573,7 +35943,7 @@
       </c>
       <c r="BC47" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD47" t="inlineStr">
@@ -35954,6 +36324,14 @@
       </c>
       <c r="EF47" t="n">
         <v>6</v>
+      </c>
+      <c r="EG47" t="n">
+        <v>25.7451</v>
+      </c>
+      <c r="EH47" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -36215,7 +36593,7 @@
       </c>
       <c r="BC48" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD48" t="inlineStr">
@@ -36596,6 +36974,14 @@
       </c>
       <c r="EF48" t="n">
         <v>4</v>
+      </c>
+      <c r="EG48" t="n">
+        <v>25.6901</v>
+      </c>
+      <c r="EH48" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -36857,7 +37243,7 @@
       </c>
       <c r="BC49" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD49" t="inlineStr">
@@ -37238,6 +37624,14 @@
       </c>
       <c r="EF49" t="n">
         <v>6</v>
+      </c>
+      <c r="EG49" t="n">
+        <v>25.4284</v>
+      </c>
+      <c r="EH49" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -37499,7 +37893,7 @@
       </c>
       <c r="BC50" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD50" t="inlineStr">
@@ -37880,6 +38274,14 @@
       </c>
       <c r="EF50" t="n">
         <v>1</v>
+      </c>
+      <c r="EG50" t="n">
+        <v>25.7173</v>
+      </c>
+      <c r="EH50" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -38141,7 +38543,7 @@
       </c>
       <c r="BC51" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD51" t="inlineStr">
@@ -38522,6 +38924,14 @@
       </c>
       <c r="EF51" t="n">
         <v>1</v>
+      </c>
+      <c r="EG51" t="n">
+        <v>25.7037</v>
+      </c>
+      <c r="EH51" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -38783,7 +39193,7 @@
       </c>
       <c r="BC52" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD52" t="inlineStr">
@@ -39176,6 +39586,16 @@
       </c>
       <c r="EF52" t="n">
         <v>4</v>
+      </c>
+      <c r="EG52" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH52" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -39437,7 +39857,7 @@
       </c>
       <c r="BC53" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD53" t="inlineStr">
@@ -39830,6 +40250,16 @@
       </c>
       <c r="EF53" t="n">
         <v>6</v>
+      </c>
+      <c r="EG53" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH53" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -40091,7 +40521,7 @@
       </c>
       <c r="BC54" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD54" t="inlineStr">
@@ -40472,6 +40902,14 @@
       </c>
       <c r="EF54" t="n">
         <v>1</v>
+      </c>
+      <c r="EG54" t="n">
+        <v>25.6595</v>
+      </c>
+      <c r="EH54" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -40733,7 +41171,7 @@
       </c>
       <c r="BC55" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD55" t="inlineStr">
@@ -41114,6 +41552,14 @@
       </c>
       <c r="EF55" t="n">
         <v>4</v>
+      </c>
+      <c r="EG55" t="n">
+        <v>25.6464</v>
+      </c>
+      <c r="EH55" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -41375,7 +41821,7 @@
       </c>
       <c r="BC56" t="inlineStr">
         <is>
-          <t>2024-04-24T00:00:00Z</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="BD56" t="inlineStr">
@@ -41756,6 +42202,14 @@
       </c>
       <c r="EF56" t="n">
         <v>6</v>
+      </c>
+      <c r="EG56" t="n">
+        <v>25.6232</v>
+      </c>
+      <c r="EH56" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -42017,7 +42471,7 @@
       </c>
       <c r="BC57" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD57" t="inlineStr">
@@ -42398,6 +42852,14 @@
       </c>
       <c r="EF57" t="n">
         <v>1</v>
+      </c>
+      <c r="EG57" t="n">
+        <v>25.6054</v>
+      </c>
+      <c r="EH57" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -42659,7 +43121,7 @@
       </c>
       <c r="BC58" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD58" t="inlineStr">
@@ -43040,6 +43502,14 @@
       </c>
       <c r="EF58" t="n">
         <v>4</v>
+      </c>
+      <c r="EG58" t="n">
+        <v>25.5897</v>
+      </c>
+      <c r="EH58" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -43301,7 +43771,7 @@
       </c>
       <c r="BC59" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD59" t="inlineStr">
@@ -43682,6 +44152,14 @@
       </c>
       <c r="EF59" t="n">
         <v>7</v>
+      </c>
+      <c r="EG59" t="n">
+        <v>25.5777</v>
+      </c>
+      <c r="EH59" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -43943,7 +44421,7 @@
       </c>
       <c r="BC60" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD60" t="inlineStr">
@@ -44324,6 +44802,14 @@
       </c>
       <c r="EF60" t="n">
         <v>1</v>
+      </c>
+      <c r="EG60" t="n">
+        <v>25.5552</v>
+      </c>
+      <c r="EH60" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -44585,7 +45071,7 @@
       </c>
       <c r="BC61" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD61" t="inlineStr">
@@ -44966,6 +45452,14 @@
       </c>
       <c r="EF61" t="n">
         <v>4</v>
+      </c>
+      <c r="EG61" t="n">
+        <v>25.5131</v>
+      </c>
+      <c r="EH61" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -45227,7 +45721,7 @@
       </c>
       <c r="BC62" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD62" t="inlineStr">
@@ -45608,6 +46102,14 @@
       </c>
       <c r="EF62" t="n">
         <v>7</v>
+      </c>
+      <c r="EG62" t="n">
+        <v>25.4337</v>
+      </c>
+      <c r="EH62" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -45869,7 +46371,7 @@
       </c>
       <c r="BC63" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD63" t="inlineStr">
@@ -46250,6 +46752,14 @@
       </c>
       <c r="EF63" t="n">
         <v>1</v>
+      </c>
+      <c r="EG63" t="n">
+        <v>25.4424</v>
+      </c>
+      <c r="EH63" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -46511,7 +47021,7 @@
       </c>
       <c r="BC64" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD64" t="inlineStr">
@@ -46892,6 +47402,14 @@
       </c>
       <c r="EF64" t="n">
         <v>4</v>
+      </c>
+      <c r="EG64" t="n">
+        <v>25.3838</v>
+      </c>
+      <c r="EH64" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -47153,7 +47671,7 @@
       </c>
       <c r="BC65" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD65" t="inlineStr">
@@ -47534,6 +48052,14 @@
       </c>
       <c r="EF65" t="n">
         <v>6</v>
+      </c>
+      <c r="EG65" t="n">
+        <v>25.3646</v>
+      </c>
+      <c r="EH65" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -47795,7 +48321,7 @@
       </c>
       <c r="BC66" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD66" t="inlineStr">
@@ -48176,6 +48702,14 @@
       </c>
       <c r="EF66" t="n">
         <v>1</v>
+      </c>
+      <c r="EG66" t="n">
+        <v>25.6028</v>
+      </c>
+      <c r="EH66" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -48437,7 +48971,7 @@
       </c>
       <c r="BC67" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD67" t="inlineStr">
@@ -48818,6 +49352,14 @@
       </c>
       <c r="EF67" t="n">
         <v>4</v>
+      </c>
+      <c r="EG67" t="n">
+        <v>25.5527</v>
+      </c>
+      <c r="EH67" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -49079,7 +49621,7 @@
       </c>
       <c r="BC68" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD68" t="inlineStr">
@@ -49460,6 +50002,14 @@
       </c>
       <c r="EF68" t="n">
         <v>6</v>
+      </c>
+      <c r="EG68" t="n">
+        <v>25.4749</v>
+      </c>
+      <c r="EH68" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -49721,7 +50271,7 @@
       </c>
       <c r="BC69" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD69" t="inlineStr">
@@ -50114,6 +50664,16 @@
       </c>
       <c r="EF69" t="n">
         <v>4</v>
+      </c>
+      <c r="EG69" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH69" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -50375,7 +50935,7 @@
       </c>
       <c r="BC70" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD70" t="inlineStr">
@@ -50768,6 +51328,16 @@
       </c>
       <c r="EF70" t="n">
         <v>1</v>
+      </c>
+      <c r="EG70" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH70" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -51029,7 +51599,7 @@
       </c>
       <c r="BC71" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD71" t="inlineStr">
@@ -51422,6 +51992,16 @@
       </c>
       <c r="EF71" t="n">
         <v>6</v>
+      </c>
+      <c r="EG71" t="inlineStr">
+        <is>
+          <t>missing: not collected</t>
+        </is>
+      </c>
+      <c r="EH71" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -51683,7 +52263,7 @@
       </c>
       <c r="BC72" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD72" t="inlineStr">
@@ -52066,6 +52646,14 @@
       </c>
       <c r="EF72" t="n">
         <v>1</v>
+      </c>
+      <c r="EG72" t="n">
+        <v>24.3031</v>
+      </c>
+      <c r="EH72" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -52327,7 +52915,7 @@
       </c>
       <c r="BC73" t="inlineStr">
         <is>
-          <t>2024-04-22T00:00:00Z</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="BD73" t="inlineStr">
@@ -52710,6 +53298,14 @@
       </c>
       <c r="EF73" t="n">
         <v>3</v>
+      </c>
+      <c r="EG73" t="n">
+        <v>24.2839</v>
+      </c>
+      <c r="EH73" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -52971,7 +53567,7 @@
       </c>
       <c r="BC74" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD74" t="inlineStr">
@@ -53354,6 +53950,14 @@
       </c>
       <c r="EF74" t="n">
         <v>1</v>
+      </c>
+      <c r="EG74" t="n">
+        <v>26.3135</v>
+      </c>
+      <c r="EH74" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -53615,7 +54219,7 @@
       </c>
       <c r="BC75" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD75" t="inlineStr">
@@ -53998,6 +54602,14 @@
       </c>
       <c r="EF75" t="n">
         <v>2</v>
+      </c>
+      <c r="EG75" t="n">
+        <v>26.0833</v>
+      </c>
+      <c r="EH75" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -54259,7 +54871,7 @@
       </c>
       <c r="BC76" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD76" t="inlineStr">
@@ -54642,6 +55254,14 @@
       </c>
       <c r="EF76" t="n">
         <v>8</v>
+      </c>
+      <c r="EG76" t="n">
+        <v>25.7801</v>
+      </c>
+      <c r="EH76" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -54903,7 +55523,7 @@
       </c>
       <c r="BC77" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD77" t="inlineStr">
@@ -55286,6 +55906,14 @@
       </c>
       <c r="EF77" t="n">
         <v>1</v>
+      </c>
+      <c r="EG77" t="n">
+        <v>27.5575</v>
+      </c>
+      <c r="EH77" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -55547,7 +56175,7 @@
       </c>
       <c r="BC78" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD78" t="inlineStr">
@@ -55930,6 +56558,14 @@
       </c>
       <c r="EF78" t="n">
         <v>2</v>
+      </c>
+      <c r="EG78" t="n">
+        <v>27.2029</v>
+      </c>
+      <c r="EH78" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -56191,7 +56827,7 @@
       </c>
       <c r="BC79" t="inlineStr">
         <is>
-          <t>2024-05-01T00:00:00Z</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="BD79" t="inlineStr">
@@ -56574,6 +57210,14 @@
       </c>
       <c r="EF79" t="n">
         <v>10</v>
+      </c>
+      <c r="EG79" t="n">
+        <v>25.7811</v>
+      </c>
+      <c r="EH79" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -56835,7 +57479,7 @@
       </c>
       <c r="BC80" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD80" t="inlineStr">
@@ -57218,6 +57862,14 @@
       </c>
       <c r="EF80" t="n">
         <v>1</v>
+      </c>
+      <c r="EG80" t="n">
+        <v>27.1582</v>
+      </c>
+      <c r="EH80" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -57479,7 +58131,7 @@
       </c>
       <c r="BC81" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD81" t="inlineStr">
@@ -57862,6 +58514,14 @@
       </c>
       <c r="EF81" t="n">
         <v>3</v>
+      </c>
+      <c r="EG81" t="n">
+        <v>26.7346</v>
+      </c>
+      <c r="EH81" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -58123,7 +58783,7 @@
       </c>
       <c r="BC82" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD82" t="inlineStr">
@@ -58506,6 +59166,14 @@
       </c>
       <c r="EF82" t="n">
         <v>10</v>
+      </c>
+      <c r="EG82" t="n">
+        <v>25.9815</v>
+      </c>
+      <c r="EH82" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -58767,7 +59435,7 @@
       </c>
       <c r="BC83" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD83" t="inlineStr">
@@ -59150,6 +59818,14 @@
       </c>
       <c r="EF83" t="n">
         <v>1</v>
+      </c>
+      <c r="EG83" t="n">
+        <v>26.7575</v>
+      </c>
+      <c r="EH83" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -59411,7 +60087,7 @@
       </c>
       <c r="BC84" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD84" t="inlineStr">
@@ -59794,6 +60470,14 @@
       </c>
       <c r="EF84" t="n">
         <v>3</v>
+      </c>
+      <c r="EG84" t="n">
+        <v>26.3995</v>
+      </c>
+      <c r="EH84" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -60055,7 +60739,7 @@
       </c>
       <c r="BC85" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD85" t="inlineStr">
@@ -60438,6 +61122,14 @@
       </c>
       <c r="EF85" t="n">
         <v>10</v>
+      </c>
+      <c r="EG85" t="n">
+        <v>25.7137</v>
+      </c>
+      <c r="EH85" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -60699,7 +61391,7 @@
       </c>
       <c r="BC86" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD86" t="inlineStr">
@@ -61082,6 +61774,14 @@
       </c>
       <c r="EF86" t="n">
         <v>1</v>
+      </c>
+      <c r="EG86" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="EH86" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -61343,7 +62043,7 @@
       </c>
       <c r="BC87" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD87" t="inlineStr">
@@ -61726,6 +62426,14 @@
       </c>
       <c r="EF87" t="n">
         <v>2</v>
+      </c>
+      <c r="EG87" t="n">
+        <v>26.9181</v>
+      </c>
+      <c r="EH87" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -61987,7 +62695,7 @@
       </c>
       <c r="BC88" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD88" t="inlineStr">
@@ -62370,6 +63078,14 @@
       </c>
       <c r="EF88" t="n">
         <v>9</v>
+      </c>
+      <c r="EG88" t="n">
+        <v>25.72</v>
+      </c>
+      <c r="EH88" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -62631,7 +63347,7 @@
       </c>
       <c r="BC89" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD89" t="inlineStr">
@@ -63014,6 +63730,14 @@
       </c>
       <c r="EF89" t="n">
         <v>1</v>
+      </c>
+      <c r="EG89" t="n">
+        <v>26.3337</v>
+      </c>
+      <c r="EH89" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -63275,7 +63999,7 @@
       </c>
       <c r="BC90" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD90" t="inlineStr">
@@ -63658,6 +64382,14 @@
       </c>
       <c r="EF90" t="n">
         <v>4</v>
+      </c>
+      <c r="EG90" t="n">
+        <v>25.6914</v>
+      </c>
+      <c r="EH90" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -63919,7 +64651,7 @@
       </c>
       <c r="BC91" t="inlineStr">
         <is>
-          <t>2024-05-16T00:00:00Z</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="BD91" t="inlineStr">
@@ -64302,6 +65034,14 @@
       </c>
       <c r="EF91" t="n">
         <v>8</v>
+      </c>
+      <c r="EG91" t="n">
+        <v>25.6243</v>
+      </c>
+      <c r="EH91" t="inlineStr">
+        <is>
+          <t>kg/m3</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -64983,6 +65723,16 @@
           <t>not applicable: control sample</t>
         </is>
       </c>
+      <c r="EG92" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EH92" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65663,6 +66413,16 @@
           <t>not applicable: control sample</t>
         </is>
       </c>
+      <c r="EG93" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EH93" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66339,6 +67099,16 @@
         </is>
       </c>
       <c r="EF94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EG94" t="inlineStr">
+        <is>
+          <t>not applicable: control sample</t>
+        </is>
+      </c>
+      <c r="EH94" t="inlineStr">
         <is>
           <t>not applicable: control sample</t>
         </is>

--- a/projects/EcoFoci/dy2306/data/dy2306_faire.xlsx
+++ b/projects/EcoFoci/dy2306/data/dy2306_faire.xlsx
@@ -5162,8 +5162,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
@@ -5810,8 +5812,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -6458,8 +6462,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -7106,8 +7112,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -7754,8 +7762,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -8402,8 +8412,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -9050,8 +9062,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -9698,8 +9712,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -10346,8 +10362,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -10994,8 +11012,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -11642,8 +11662,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -12290,8 +12312,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -12938,8 +12962,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -13586,8 +13612,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -14234,8 +14262,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -14882,8 +14912,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -15530,8 +15562,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -16178,8 +16212,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -16840,8 +16876,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -17502,8 +17540,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -18164,8 +18204,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -18812,8 +18854,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -19460,8 +19504,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -20108,8 +20154,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -20756,8 +20804,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -21404,8 +21454,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -22052,8 +22104,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -22700,8 +22754,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -23348,8 +23404,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -23996,8 +24054,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -24644,8 +24704,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -25292,8 +25354,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -25940,8 +26004,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -26588,8 +26654,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -27236,8 +27304,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -27884,8 +27954,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -28532,8 +28604,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -29180,8 +29254,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -29828,8 +29904,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -30476,8 +30554,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -31124,8 +31204,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -31772,8 +31854,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -32420,8 +32504,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -33068,8 +33154,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -33716,8 +33804,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -34364,8 +34454,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -35012,8 +35104,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -35660,8 +35754,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -36308,8 +36404,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -36970,8 +37068,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -37632,8 +37732,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -38280,8 +38382,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -38928,8 +39032,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H56" t="n">
-        <v/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -39576,8 +39682,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -40224,8 +40332,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H58" t="n">
-        <v/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -40872,8 +40982,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H59" t="n">
-        <v/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -41520,8 +41632,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -42168,8 +42282,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H61" t="n">
-        <v/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -42816,8 +42932,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -43464,8 +43582,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H63" t="n">
-        <v/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -44112,8 +44232,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -44760,8 +44882,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -45408,8 +45532,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -46056,8 +46182,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -46704,8 +46832,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -47352,8 +47482,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -48014,8 +48146,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H70" t="n">
-        <v/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -48676,8 +48810,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -49338,8 +49474,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -49988,8 +50126,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -50638,8 +50778,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H74" t="n">
-        <v/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -51288,8 +51430,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -51938,8 +52082,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H76" t="n">
-        <v/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -52588,8 +52734,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -53238,8 +53386,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -53888,8 +54038,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -54538,8 +54690,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H80" t="n">
-        <v/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -55188,8 +55342,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H81" t="n">
-        <v/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -55838,8 +55994,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H82" t="n">
-        <v/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -56488,8 +56646,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H83" t="n">
-        <v/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -57138,8 +57298,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H84" t="n">
-        <v/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -57788,8 +57950,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H85" t="n">
-        <v/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -58438,8 +58602,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H86" t="n">
-        <v/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -59088,8 +59254,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H87" t="n">
-        <v/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -59738,8 +59906,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H88" t="n">
-        <v/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -60388,8 +60558,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H89" t="n">
-        <v/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -61038,8 +61210,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H90" t="n">
-        <v/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -61688,8 +61862,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H91" t="n">
-        <v/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+        </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -64404,7 +64580,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>not applicable: control sample</t>
+          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">

--- a/projects/EcoFoci/dy2306/data/dy2306_faire.xlsx
+++ b/projects/EcoFoci/dy2306/data/dy2306_faire.xlsx
@@ -64580,7 +64580,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>E1717.NC.DY2306 | E1771.NC.DY2306 | E1819.NC.DY2306</t>
+          <t>not applicable: control sample</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
